--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Iraq_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Iraq_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G211"/>
+  <dimension ref="A1:G214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5717,12 +5717,87 @@
         <v>1459</v>
       </c>
       <c r="E211" t="n">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="F211" t="n">
-        <v>1459</v>
+        <v>1308</v>
       </c>
       <c r="G211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45047.33333333334</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDIQD</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>1309</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1309</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1307</v>
+      </c>
+      <c r="F212" t="n">
+        <v>1309</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45078.33333333334</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDIQD</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>1309</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1309</v>
+      </c>
+      <c r="E213" t="n">
+        <v>1307</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1307</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45110.33333333334</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDIQD</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>1308</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1308</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1307</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1307</v>
+      </c>
+      <c r="G214" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Iraq_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Iraq_FX.xlsx
@@ -5795,7 +5795,7 @@
         <v>1307</v>
       </c>
       <c r="F214" t="n">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="G214" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Iraq_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Iraq_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G214"/>
+  <dimension ref="A1:G215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -753,7 +753,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>38992.33333333334</v>
+        <v>38992.375</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -5798,6 +5798,31 @@
         <v>1308</v>
       </c>
       <c r="G214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45139.33333333334</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDIQD</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>1307</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1308</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1307</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1307</v>
+      </c>
+      <c r="G215" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Iraq_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Iraq_FX.xlsx
@@ -753,7 +753,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>38992.375</v>
+        <v>38992.33333333334</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Iraq_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Iraq_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G215"/>
+  <dimension ref="A1:G218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5814,15 +5814,90 @@
         <v>1307</v>
       </c>
       <c r="D215" t="n">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="E215" t="n">
         <v>1307</v>
       </c>
       <c r="F215" t="n">
+        <v>1308.62</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45170.33333333334</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDIQD</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>1308.62</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1308.65</v>
+      </c>
+      <c r="E216" t="n">
         <v>1307</v>
       </c>
-      <c r="G215" t="n">
+      <c r="F216" t="n">
+        <v>1308.62</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45201.375</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDIQD</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>1308.62</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1310</v>
+      </c>
+      <c r="E217" t="n">
+        <v>1306</v>
+      </c>
+      <c r="F217" t="n">
+        <v>1309</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45231.375</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDIQD</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>1309</v>
+      </c>
+      <c r="D218" t="n">
+        <v>1309</v>
+      </c>
+      <c r="E218" t="n">
+        <v>1308</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1309</v>
+      </c>
+      <c r="G218" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Iraq_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Iraq_FX.xlsx
@@ -5895,7 +5895,7 @@
         <v>1308</v>
       </c>
       <c r="F218" t="n">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="G218" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Iraq_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Iraq_FX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G218"/>
+  <dimension ref="A1:G219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5415,9 +5415,32 @@
         <v>1308</v>
       </c>
       <c r="F218">
+        <v>1309</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="2">
+        <v>45261.375</v>
+      </c>
+      <c r="B219" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219">
+        <v>1309</v>
+      </c>
+      <c r="D219">
+        <v>1309</v>
+      </c>
+      <c r="E219">
         <v>1308</v>
       </c>
-      <c r="G218">
+      <c r="F219">
+        <v>1308</v>
+      </c>
+      <c r="G219">
         <v>0</v>
       </c>
     </row>
